--- a/public/menu.xlsx
+++ b/public/menu.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -34,22 +34,25 @@
     <t xml:space="preserve">Image Path</t>
   </si>
   <si>
+    <t xml:space="preserve">05.04.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spaghetti bolognese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25,00 zł</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Placek po zbójnicku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20,00 zł</t>
+  </si>
+  <si>
+    <t xml:space="preserve">placekpozbojnicku.jpeg</t>
+  </si>
+  <si>
     <t xml:space="preserve">30.03.2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spaghetti bolognese</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25,00 zł</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Placek po zbójnicku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20,00 zł</t>
-  </si>
-  <si>
-    <t xml:space="preserve">placekpozbojnicku.jpeg</t>
   </si>
   <si>
     <t xml:space="preserve">Udko kurczaka z marchewką</t>
@@ -86,16 +89,19 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="238"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="238"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="238"/>
     </font>
     <font>
       <b val="true"/>
@@ -363,7 +369,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -415,27 +421,27 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/public/menu.xlsx
+++ b/public/menu.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -34,13 +34,16 @@
     <t xml:space="preserve">Image Path</t>
   </si>
   <si>
+    <t xml:space="preserve">09.02.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spaghetti bolognese i zupa grzybowa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45,00 zł</t>
+  </si>
+  <si>
     <t xml:space="preserve">05.04.2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spaghetti bolognese</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25,00 zł</t>
   </si>
   <si>
     <t xml:space="preserve">Placek po zbójnicku</t>
@@ -369,7 +372,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -407,41 +410,41 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/public/menu.xlsx
+++ b/public/menu.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -34,51 +34,47 @@
     <t xml:space="preserve">Image Path</t>
   </si>
   <si>
-    <t xml:space="preserve">09.02.2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spaghetti bolognese i zupa grzybowa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">45,00 zł</t>
-  </si>
-  <si>
-    <t xml:space="preserve">05.04.2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Placek po zbójnicku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20,00 zł</t>
-  </si>
-  <si>
-    <t xml:space="preserve">placekpozbojnicku.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30.03.2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Udko kurczaka z marchewką</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40,00 zł</t>
-  </si>
-  <si>
-    <t xml:space="preserve">udkozkurczakazmarchewka.jpeg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pierogi ruskie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">18,00 zł</t>
+    <t xml:space="preserve">07.04.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gulasz wieprzowy, kasza gryczana, surówka + zupa wiosenna lub grochowa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grillowany rumsztyk z cebulką, ziemniaki, surówka + zupa wiosenna lub grochowa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gulasz wieprzowy, kasza gryczana, surówka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grillowany rumsztyk z cebulką, ziemniaki, surówka </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zupa wiosenna lub grochowa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kotlet schabowy, ziemniaki, surówka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panierowany filet z kurczaka, ziemniaki, surówka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bigos z ziemniakami </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Naleśniki z serkiem i brzoskwiniami </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="d/mm/yyyy"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00\ [$zł-415];[RED]\-#,##0.00\ [$zł-415]"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -164,7 +160,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -175,6 +171,14 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -369,10 +373,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
+      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -398,53 +402,107 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
+      <c r="C2" s="4" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C8" s="4" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C9" s="4" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="C10" s="4" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/public/menu.xlsx
+++ b/public/menu.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -34,22 +34,19 @@
     <t xml:space="preserve">Image Path</t>
   </si>
   <si>
-    <t xml:space="preserve">07.04.2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gulasz wieprzowy, kasza gryczana, surówka + zupa wiosenna lub grochowa </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grillowany rumsztyk z cebulką, ziemniaki, surówka + zupa wiosenna lub grochowa </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gulasz wieprzowy, kasza gryczana, surówka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grillowany rumsztyk z cebulką, ziemniaki, surówka </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zupa wiosenna lub grochowa </t>
+    <t xml:space="preserve">09.04.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schabik pod pierzynką majonezowo-warzywną, ziemniaki, surówka + zupa krupnik lub gołąbkowa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kotlety pożarskie, ziemniaki, surówka + zupa krupnik lub gołąbkowa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schabik pod pierzynką, ziemniaki, surówka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zupa krupnik lub gołąbkowa</t>
   </si>
   <si>
     <t xml:space="preserve">Kotlet schabowy, ziemniaki, surówka</t>
@@ -58,7 +55,7 @@
     <t xml:space="preserve">Panierowany filet z kurczaka, ziemniaki, surówka</t>
   </si>
   <si>
-    <t xml:space="preserve">Bigos z ziemniakami </t>
+    <t xml:space="preserve">Zupa gulaszowa</t>
   </si>
   <si>
     <t xml:space="preserve">Naleśniki z serkiem i brzoskwiniami </t>
@@ -409,18 +406,18 @@
         <v>5</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -431,7 +428,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -439,10 +436,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -450,7 +447,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="4" t="n">
         <v>9.5</v>
@@ -461,7 +458,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="4" t="n">
         <v>28</v>
@@ -472,7 +469,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="4" t="n">
         <v>28</v>
@@ -483,10 +480,10 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>24</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -494,15 +491,15 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/public/menu.xlsx
+++ b/public/menu.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="15">
   <si>
     <t xml:space="preserve">Date</t>
   </si>
@@ -34,19 +34,22 @@
     <t xml:space="preserve">Image Path</t>
   </si>
   <si>
-    <t xml:space="preserve">09.04.2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schabik pod pierzynką majonezowo-warzywną, ziemniaki, surówka + zupa krupnik lub gołąbkowa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kotlety pożarskie, ziemniaki, surówka + zupa krupnik lub gołąbkowa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Schabik pod pierzynką, ziemniaki, surówka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zupa krupnik lub gołąbkowa</t>
+    <t xml:space="preserve">14.05.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kotlet „szwajcar”, ziemniaki, surówka + zupa jarzynowa lub fasolowa po bretońsku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potrawka z kurczaka w sosie porowym, ziemniaki, surówka + zupa jarzynowa lub fasolowa po bretońsku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kotlet ”szwajcar”, ziemniaki, surówka </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potrawka z kurczaka w sosie porowym, ziemniaki, surówka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zupa jarzynowa lub fasolowa po bretońsku</t>
   </si>
   <si>
     <t xml:space="preserve">Kotlet schabowy, ziemniaki, surówka</t>
@@ -373,7 +376,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -406,7 +409,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -428,7 +431,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -436,7 +439,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" s="4" t="n">
         <v>27</v>
@@ -447,7 +450,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" s="4" t="n">
         <v>9.5</v>
@@ -458,7 +461,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7" s="4" t="n">
         <v>28</v>
@@ -469,7 +472,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="4" t="n">
         <v>28</v>
@@ -480,7 +483,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9" s="4" t="n">
         <v>16.5</v>
@@ -491,7 +494,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="4" t="n">
         <v>22</v>
@@ -499,7 +502,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/public/menu.xlsx
+++ b/public/menu.xlsx
@@ -34,22 +34,22 @@
     <t xml:space="preserve">Image Path</t>
   </si>
   <si>
-    <t xml:space="preserve">14.05.2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kotlet „szwajcar”, ziemniaki, surówka + zupa jarzynowa lub fasolowa po bretońsku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potrawka z kurczaka w sosie porowym, ziemniaki, surówka + zupa jarzynowa lub fasolowa po bretońsku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kotlet ”szwajcar”, ziemniaki, surówka </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potrawka z kurczaka w sosie porowym, ziemniaki, surówka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zupa jarzynowa lub fasolowa po bretońsku</t>
+    <t xml:space="preserve">15.05.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panierowana karkówka, ziemniaki, surówka + zupa ogórkowa lub kapuśniak ze świeżej kapusty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kawałki kurczaka w sosie pieczarkowym, ziemniaki, surówka + zupa ogórkowa lub kapuśniak ze świeżej kapusty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panierowana karkówka, ziemniaki, surówka </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kawałki kurczaka w sosie pieczarkowym, ziemniaki, surówka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zupa ogórkowa lub kapuśniak ze świeżej kapusty</t>
   </si>
   <si>
     <t xml:space="preserve">Kotlet schabowy, ziemniaki, surówka</t>
@@ -376,7 +376,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -409,7 +409,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -420,7 +420,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -431,7 +431,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -442,7 +442,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/public/menu.xlsx
+++ b/public/menu.xlsx
@@ -34,22 +34,22 @@
     <t xml:space="preserve">Image Path</t>
   </si>
   <si>
-    <t xml:space="preserve">15.05.2025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panierowana karkówka, ziemniaki, surówka + zupa ogórkowa lub kapuśniak ze świeżej kapusty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kawałki kurczaka w sosie pieczarkowym, ziemniaki, surówka + zupa ogórkowa lub kapuśniak ze świeżej kapusty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panierowana karkówka, ziemniaki, surówka </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kawałki kurczaka w sosie pieczarkowym, ziemniaki, surówka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zupa ogórkowa lub kapuśniak ze świeżej kapusty</t>
+    <t xml:space="preserve">16.05.2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryba miruna, domowe frytki, surówka + zupa kapuśniak ze słodkiej kapusty lub rosół</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zrazy wieprzowe z mięsa mielonego, ziemniaki, surówka + zupa kapuśniak ze słodkiej kapusty lub rosół</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ryba miruna, domowe frytki, surówka </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zrazy wieprzowe z mięsa mielonego, ziemniaki, surówka </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zupa kapuśniak ze słodkiej kapusty lub rosół</t>
   </si>
   <si>
     <t xml:space="preserve">Kotlet schabowy, ziemniaki, surówka</t>
@@ -376,7 +376,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -409,7 +409,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -420,7 +420,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -431,7 +431,7 @@
         <v>7</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -442,7 +442,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
